--- a/Nomenclature_Master/customerQR_Generation_21_3.xlsx
+++ b/Nomenclature_Master/customerQR_Generation_21_3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>S.No</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Pack No</t>
+  </si>
+  <si>
+    <t>Pack Date</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -234,6 +237,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -530,15 +536,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H26"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
@@ -546,7 +552,13 @@
     <col min="8" max="8" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45945</v>
+      </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
@@ -554,7 +566,7 @@
         <v>47934</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -594,7 +606,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -614,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -634,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -654,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>5</v>
       </c>
@@ -674,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -694,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>7</v>
       </c>
@@ -710,12 +722,12 @@
       <c r="G10" s="2">
         <v>251123</v>
       </c>
-      <c r="H10" t="str">
-        <f ca="1">TEXT(TODAY(), "DDMMYY")</f>
-        <v>180925</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="8" t="str">
+        <f>TEXT(C2, "ddmmyy")</f>
+        <v>151025</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>8</v>
       </c>
@@ -735,50 +747,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C12" s="8">
+    <row r="12" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="12" t="str">
         <f ca="1">IF(AND(MOD(NOW(),1)&gt;=TIME(6,0,0), MOD(NOW(),1)&lt;TIME(14,0,0)), "01",
  IF(AND(MOD(NOW(),1)&gt;=TIME(14,0,0), MOD(NOW(),1)&lt;TIME(22,0,0)), "02",
  "03"))</f>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <v>10</v>
       </c>
@@ -798,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <v>11</v>
       </c>
@@ -825,7 +837,7 @@
     <row r="26" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H26" t="str">
         <f ca="1">H4&amp;H5&amp;H6&amp;H7&amp;H8&amp;H9&amp;H10&amp;H11&amp;H12&amp;H13&amp;H14&amp;H15&amp;H16</f>
-        <v>162:1403AET00030N:DTAGGES22:180925:02:047934</v>
+        <v>162:1403AET00030N:DTAGGES22:151025:01:047934</v>
       </c>
     </row>
   </sheetData>
